--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>28</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>34</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>31</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>33</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>43</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>30</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>32</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>42</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>30</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>26</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>32</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>17</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>18</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>24</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>18</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>24</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>17</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>22</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>29</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>23</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>19</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>24</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>33</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>17</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>21</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>28</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>22</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>17</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>23</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>32</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>22</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>17</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>35</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>26</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>21</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>27</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>38</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>24</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>19</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>25</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>36</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>22</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>17</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>24</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>34</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>24</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>18</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>25</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>37</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>21</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>16</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>22</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>33</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
         <v>31</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>365</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>31</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-06 to 2024-12-29</t>
+          <t>2024-10-06 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>56 units</t>
+          <t>72 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
         <v>26</v>
       </c>
-      <c r="F2" t="n">
-        <v>23</v>
-      </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
         <v>31</v>
       </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33</v>
-      </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,16 +614,16 @@
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
         <v>26</v>
-      </c>
-      <c r="G5" t="n">
-        <v>32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>42</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
         <v>17</v>
       </c>
-      <c r="F6" t="n">
-        <v>15</v>
-      </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
         <v>20</v>
       </c>
-      <c r="F8" t="n">
-        <v>17</v>
-      </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -894,16 +894,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
         <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-06 to 2025-01-05</t>
+          <t>2024-10-06 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>72 units</t>
+          <t>89 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>18</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>18</v>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>18</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="n">
         <v>14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -510,8 +510,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -550,8 +550,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -590,8 +590,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -630,8 +630,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -670,8 +670,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -710,8 +710,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -750,8 +750,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -790,8 +790,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -830,8 +830,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -870,8 +870,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -910,8 +910,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -950,8 +950,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -990,8 +990,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1030,8 +1030,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1070,8 +1070,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -1110,8 +1110,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-06 to 2025-01-12</t>
+          <t>2024-10-06 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>89 units</t>
+          <t>113 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>113 units</t>
+          <t>95 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -510,8 +510,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -550,8 +550,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -590,8 +590,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -630,8 +630,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,8 +670,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -710,8 +710,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -750,8 +750,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -790,8 +790,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,8 +830,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -910,8 +910,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -950,8 +950,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1070,8 +1070,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>187</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP8Q6JK.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,28 +491,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,28 +529,26 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
-        <v>21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,28 +567,26 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" t="n">
-        <v>19</v>
-      </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,25 +608,23 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -642,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,25 +646,23 @@
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,28 +681,26 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>14</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>18</v>
       </c>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -722,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,28 +719,26 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
         <v>16</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="n">
-        <v>26</v>
-      </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -762,7 +748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,28 +757,26 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
         <v>13</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>17</v>
       </c>
-      <c r="F9" t="n">
-        <v>20</v>
-      </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -802,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,28 +795,26 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
-        <v>14</v>
-      </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,28 +833,26 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -882,7 +862,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,28 +871,26 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -922,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,25 +912,23 @@
         <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -962,7 +938,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,28 +947,26 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>15</v>
       </c>
-      <c r="F14" t="n">
-        <v>19</v>
-      </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,7 +976,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,28 +985,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1042,7 +1014,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,28 +1023,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1082,7 +1052,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,28 +1061,26 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1153,7 +1121,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-06 to 2025-01-19</t>
+          <t>2024-10-06 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1193,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>95 units</t>
+          <t>101 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1205,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1217,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1229,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1241,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1265,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1277,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
